--- a/results_punctual_metrics_Dao_Lang - metrics.xlsx
+++ b/results_punctual_metrics_Dao_Lang - metrics.xlsx
@@ -136,6 +136,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I11" headerRowCount="1">
+  <autoFilter ref="A1:I11"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="model"/>
+    <tableColumn id="2" name="original_text"/>
+    <tableColumn id="3" name="zh_en"/>
+    <tableColumn id="4" name="en_zh"/>
+    <tableColumn id="5" name="BLEU"/>
+    <tableColumn id="6" name="BLEU-Unif"/>
+    <tableColumn id="7" name="CHRF"/>
+    <tableColumn id="8" name="TER"/>
+    <tableColumn id="9" name="Semantic Sim"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleNone" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -425,13 +443,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.67" customWidth="1" min="1" max="1"/>
+    <col width="14.67" customWidth="1" min="2" max="2"/>
+    <col width="14.67" customWidth="1" min="3" max="3"/>
+    <col width="14.67" customWidth="1" min="4" max="4"/>
+    <col width="14.67" customWidth="1" min="5" max="5"/>
+    <col width="14.67" customWidth="1" min="6" max="6"/>
+    <col width="14.67" customWidth="1" min="7" max="7"/>
+    <col width="14.67" customWidth="1" min="8" max="8"/>
+    <col width="14.67" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -483,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-thinking-exp</t>
+          <t>deepseek-chat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,34 +522,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I am the wandering tear on the rings of time,You can still smell the rouge in the wind.If I were to carve the promise on that riverbank,A river of cold water, moonlight floods the city.I waited for you for a long time under the tree of time,The mortal world entangled me, slandered me, laughed at me until my hair turned white.Look at that kite chasing the setting sun on the horizon,Like a wind lantern that looks back to say goodbye in the deep night.My heart is like quicksand, exiled beside the wheel tracks,Another day if you return, you must wander in this world.If you encounter that autumn night rain, even tired birds will be drenched,That is but the lingering withered yellow under the flower wall.You live in the east of Qiantang, I live in the north of Lin'an,When you left, your brown clothes were red, the little slave girl's waist was yellow.Searched wrongly for the compass scripture, wrongly cast in Quanting,The slave girl wandered to Hangzhou city, you were reborn in YuHang.</t>
+          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>我是时间轮环上漂泊的泪滴，你依然能在风中嗅到胭脂的气味。倘若我将誓言刻在那河岸上，一条冰冷的河水，月光淹没城市。我在时间之树下等你良久，凡尘俗世纠缠我，诋毁我，嘲笑我，直至我白发苍苍。看那地平线上追逐夕阳的风筝，宛如一盏回首道别的风灯在深夜里。我的心如流沙，流放于车辙之旁，他日若你归来，必将在这世间漂泊。若你遭遇那秋夜雨，纵使倦鸟亦会淋湿，那不过是花墙之下残存的枯黄。你住在钱塘之东，我住在临安之北，你离去时，棕色的衣衫已泛红，小奴婢的腰带是黄的。误寻罗经忏，错铸在泉亭，婢女流落至杭城，你却重生于余杭。</t>
+          <t>刀郎，《花妖》节选： "我是那年轮上流浪的眼泪， 你仍然能闻到风中的胭脂味。 我若是将诺言刻在那江畔上， 一江水冷月光满城的汪洋。 我在时间的树下等了你很久， 尘凡儿缠我谤我笑我白了头。 你看那天边追逐落日的纸鸢， 像一盏回首道别夤夜的风灯。 我的心似流沙放逐在车辙旁， 他日你若再返必颠沛在世上。 若遇那秋夜雨倦鸟也淋淋， 那却是花墙下凋谢的黄玫瑰。 君住钱塘东，妾在临安北， 君去时褐衣红，我腰上黄。 寻差了罗盘经，错投在泉亭， 辗转到杭城，君又生余杭。"</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2506270086978258</v>
+        <v>0.7602074563413507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05454185903650439</v>
+        <v>0.6481445003135727</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6462585034013606</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.02530704013731438</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.6457014380775987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>deepseek-chat</t>
+          <t>Deep Think</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,29 +564,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>刀郎，《花妖》节选： "我是那年轮上流浪的眼泪， 你仍然能闻到风中的胭脂味。 我若是将诺言刻在那江畔上， 一江水冷月光满城的汪洋。 我在时间的树下等了你很久， 尘凡儿缠我谤我笑我白了头。 你看那天边追逐落日的纸鸢， 像一盏回首道别夤夜的风灯。 我的心似流沙放逐在车辙旁， 他日你若再返必颠沛在世上。 若遇那秋夜雨倦鸟也淋淋， 那却是花墙下凋谢的黄玫瑰。 君住钱塘东，妾在临安北， 君去时褐衣红，我腰上黄。 寻差了罗盘经，错投在泉亭， 辗转到杭城，君又生余杭。"</t>
+          <t>刀郎《花妖》选段：“我是那年轮上流浪的眼泪，仍闻风中的胭脂香味。若将那江畔刻你我誓言，冷月光水淹钱塘江。我于时间树下等了你许久，笑我谤我唾我白了头。你看那天边追逐落日的纸鸢，像一盏回首道别夤夜的风灯。我心似流沙放逐在车辙旁，他日你若再返必颠沛在世上。若遇那秋雨倦淋湿的翅膀，可告诉它黄叶栌墙凋零在花墙。君住钱塘东，妾在临安北。君去时褐衣红，小奴家腰上黄。寻差了罗盘经，错投在泉亭，辗转到杭城，君又生余杭。”</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7602074563413507</v>
+        <v>0.6096431776776248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6481445003135727</v>
+        <v>0.489345010974317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02530704013731438</v>
+        <v>0.03789526006438298</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6457014380775987</v>
+        <v>0.3557805789054897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>claude-3-7-sonnet-20250219</t>
+          <t xml:space="preserve">Google </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,34 +596,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dao Lang, partial lyrics of "Flower Demon":"I am the wandering tear on the annual ring, you can still smell the rouge in the wind. If I were to carve promises on the riverbank, a river of cold moonlight would flood the city. I've waited for you for a long time beneath the tree of time, while mortals entangled me, slandered me, laughed as my hair turned white. Look at the kite chasing the sunset on the horizon, like a lantern bidding farewell in the late night. My heart is like drifting sand, banished beside the wheel tracks. If you return someday, you will surely wander in this world. If you encounter autumn night rain where even tired birds are soaked, that would be the withered yellow lingering beneath the flower wall. You live in the east of Qiantang, while I am in the north of Lin'an. When you left you wore a brown and red robe, and this little servant had yellow at her waist. I followed the wrong compass, mistakenly arriving at Spring Pavilion. This servant made her way to Hangzhou City, only to find you've moved to Yuhang."</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the wandering tears on the annual rings, you can still smell the rouge in the wind, if I carve my promise on the river bank, the river is cold and the moonlight fills the city, I have waited for you for a long time under the tree of time, the mortal world entangles me, slanders me, laughs at me, and my hair turns white, you see the kite chasing the sunset on the horizon, like a wind lantern looking back to say goodbye in the middle of the night, my heart is like quicksand exiled beside the wheel rut, if you come back one day, you must be wandering in the world, if you encounter that autumn night rain, the birds are also wet, but it is the withered yellow lingering under the flower wall, you live in the east of Qiantang, I live in the north of Lin'an, you left with brown clothes and red, my little slave's waist is yellow, I misplaced the compass and was thrown into the wrong place at Quanting, I went to Hangzhou, and you were born in Yuhang again."</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>刀郎，《花妖》部分歌词："我是年轮上漂泊的泪，风中尚可闻你的胭脂。若在河滩上刻下誓约，一条寒月的河水漫过城池。我在时间树下等你很久，凡人纠缠我，诋毁我，笑看我白了头发。看天边追逐夕阳的风筝，好像深夜告别的灯笼。我的心如漂流的沙，流放在车辙旁边。倘若你归来有一天，必定会在这个世间徘徊。若遇秋夜雨连疲倦的鸟儿也湿透，那是花墙下残留的枯黄。你住在钱塘东，我在临安北。你离去时穿着褐红袍，这小婢腰间束着黄。我循错了罗盘，误到春台上。这婢女一路来到杭州城，却发现你已搬去余杭。"</t>
+          <t>刀郎，《花魔》部分歌词：“我是年轮上那一滴游离的泪水，风中你犹能闻到胭脂的味道，若我在河岸上刻下诺言，河水清冷月色满城，我在时光树下等你许久，红尘缠我，诽谤我，嘲笑我，白了头发，你看天边那只追逐落日的鸢，像风灯在半夜回首告别，我的心像流沙被放逐在车轮车辙旁，若有一天你回来，你一定在人间漂泊，若遇上那秋夜的雨，飞鸟也湿了，却是花墙下萦绕的枯黄，你住钱塘东，我住临安北，你留下褐衣赤色，我的小奴腰间黄，我放错了地方罗盘在泉亭丢错了地方，我去了杭州，你又生在余杭。”</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3113995776646092</v>
+        <v>0.3664131090886972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1448867485484065</v>
+        <v>0.1347240941899413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6462585034013606</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03979531143715617</v>
+        <v>0.03990366344541543</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06481018122682976</v>
+        <v>0.04231207731002973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>grok-beta</t>
+          <t>Sougo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,34 +633,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Here is the translation:Dao Lang, lyrics from "Flower Fairy":"I am the wandering tears on the annual rings,You can still smell the scent of rouge in the wind,If I were to carve my promise on the riverbank,The river would run cold, the moonlight flooding the city like an ocean,I have waited for you for a long time under the tree of time,The worldly affairs have entangled, slandered, and laughed at me until my hair turned white,Look at the kite chasing the setting sun in the sky,Like a lamp bidding farewell in the deep night,My heart is like quicksand exiled by the ruts,If you return another day, you'll surely be tossed about in this world,If you encounter the autumn night rain, even the weary birds would be drenched,That would be the lingering yellow under the flower wall,You live in the east of Qiantang, I in the north of Lin'an,When you left, you wore a brown coat, with a yellow belt around my waist,I've lost my way with the compass, mistakenly went to Quan Pavilion,I wandered to Hangzhou, and you were born in Yuhang."</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am a wandering tear in that year's ring, and you can still smell the rouge in the wind. If I carve my promise on that river bank, a river is cold and the moonlight is full of Wang Yang, I have been waiting for you for a long time under the tree of time, and the dust is pestering me to slander me and make me laugh. Look at the paper kite chasing the sunset that day, like a lantern looking back and saying goodbye to the night. If the tired birds are drenched in the autumn night rain, it is the dying yellow under the flower wall. You live in Qiantang East and my concubine is in Lin' an North. When you go, your clothes are brown and red, and your little slave's waist is yellow. You lost the compass and threw it in the spring pavilion by mistake. The slave moved to Hang Cheng and you gave birth to Yuhang. "</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>刀郎，《花仙子》歌词：“我是年轮上流浪的眼泪，风中还可以闻到胭脂的香气，如果我在河岸上刻下誓言，河水会冷却，月光如海洋般淹没城市，我在时间之树下等你许久，世事纠缠、诽谤、嘲笑我白了头，看天空中风筝追逐落日，如同深夜里灯火告别，我的心如流沙被车辙流放，若你他日归来，必将在此世间颠簸，若你遇秋夜雨，连疲倦的鸟儿也会湿透，那将是花墙下的黄色留恋，你居钱塘东，我在临安北，你离去时身披褐色外套，腰间系着黄带，我迷失了指南针，误入泉亭，我流浪到杭州，你出生于余杭。”</t>
+          <t>《花妖》歌词部分刀郎:“我是那年轮里流浪的一滴泪，你还能闻到风里的胭脂香。如果我把我的承诺刻在那河岸，一江春寒，月色满汪洋，我在时间的树下等了你很久，尘埃缠着我诽谤我，逗我笑。看那天追着夕阳的纸鸢，像灯笼回眸告别黑夜。如果说倦鸟被秋夜的雨淋湿了，那就是花墙下奄奄一息的黄。你住钱塘东，我妾在临安北。你去的时候，衣服是棕红色的，小奴才的腰是黄色的。你把指南针弄丢了，不小心扔进了春亭。奴才迁杭城，你生余杭。"</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3311222967495874</v>
+        <v>0.3650069350190501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1501280147525542</v>
+        <v>0.2063465946648288</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03918613438920988</v>
+        <v>0.04336381499180619</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02034664026975296</v>
+        <v>0.04599607018026386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gpt-4.5-preview-2025-02-27</t>
+          <t>grok-beta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -641,34 +670,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dao Lang, lyrics excerpt from "Hua Yao":"I am the wandering tear on growth rings, Yet you still sense the fragrance of rouge within the breeze. If I engrave a promise by the riverside, The chilling river, moonlight vast, flooding through the city. Beneath the tree of time, I waited long for you; Mortals entangle, slander, mock my graying years. Look at the kite chasing sunset at heaven's edge, A wind lantern bidding farewell in the late night. My heart, like drifting sand, abandoned beside wheel tracks— Someday, should you return, adrift and homeless you'll become. If encountering tired birds drenched by autumn rain, They are the withered yellow lingering beneath floral walls. You dwell east of Qiantang, I reside north of Lin'an. When you departed, your robe was red, my waistband yellow; Mistakenly following the compass needle, arriving wrongly at Quanjing; I wandered through Hangzhou, yet you were reborn in Yuhang."</t>
+          <t>Here is the translation:Dao Lang, lyrics from "Flower Fairy":"I am the wandering tears on the annual rings,You can still smell the scent of rouge in the wind,If I were to carve my promise on the riverbank,The river would run cold, the moonlight flooding the city like an ocean,I have waited for you for a long time under the tree of time,The worldly affairs have entangled, slandered, and laughed at me until my hair turned white,Look at the kite chasing the setting sun in the sky,Like a lamp bidding farewell in the deep night,My heart is like quicksand exiled by the ruts,If you return another day, you'll surely be tossed about in this world,If you encounter the autumn night rain, even the weary birds would be drenched,That would be the lingering yellow under the flower wall,You live in the east of Qiantang, I in the north of Lin'an,When you left, you wore a brown coat, with a yellow belt around my waist,I've lost my way with the compass, mistakenly went to Quan Pavilion,I wandered to Hangzhou, and you were born in Yuhang."</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>我是年轮上游走的泪， 却让你嗅到风中胭脂的香味。 若在江边刻下一句誓约， 寒江月冷，淹没几座城池的辽阔。 我在岁月的树下等你许久， 凡尘纠葛，诋毁、嘲弄我斑白的年头。 看天边风筝追逐夕阳， 夜半风灯正洒着临别的光亮。 我的心如流沙般搁浅在辙旁， 他日你若归来，漂泊无依便是你的模样。 若遇见被秋雨淋湿的倦鸟， 它们是花墙下流连的枯黄。 你家住钱塘东，我家住临安北。 初识你时你红衣垂落，我腰系黄带； 却误随指针错抵权境， 我流浪杭州，你却转世余杭。</t>
+          <t>刀郎，《花仙子》歌词：“我是年轮上流浪的眼泪，风中还可以闻到胭脂的香气，如果我在河岸上刻下誓言，河水会冷却，月光如海洋般淹没城市，我在时间之树下等你许久，世事纠缠、诽谤、嘲笑我白了头，看天空中风筝追逐落日，如同深夜里灯火告别，我的心如流沙被车辙流放，若你他日归来，必将在此世间颠簸，若你遇秋夜雨，连疲倦的鸟儿也会湿透，那将是花墙下的黄色留恋，你居钱塘东，我在临安北，你离去时身披褐色外套，腰间系着黄带，我迷失了指南针，误入泉亭，我流浪到杭州，你出生于余杭。”</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2141406585364036</v>
+        <v>0.3311222967495874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05231286458618298</v>
+        <v>0.1501280147525542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03918613438920988</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.02034664026975296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Google </t>
+          <t>claude-3-7-sonnet-20250219</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -678,34 +707,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the wandering tears on the annual rings, you can still smell the rouge in the wind, if I carve my promise on the river bank, the river is cold and the moonlight fills the city, I have waited for you for a long time under the tree of time, the mortal world entangles me, slanders me, laughs at me, and my hair turns white, you see the kite chasing the sunset on the horizon, like a wind lantern looking back to say goodbye in the middle of the night, my heart is like quicksand exiled beside the wheel rut, if you come back one day, you must be wandering in the world, if you encounter that autumn night rain, the birds are also wet, but it is the withered yellow lingering under the flower wall, you live in the east of Qiantang, I live in the north of Lin'an, you left with brown clothes and red, my little slave's waist is yellow, I misplaced the compass and was thrown into the wrong place at Quanting, I went to Hangzhou, and you were born in Yuhang again."</t>
+          <t>Dao Lang, partial lyrics of "Flower Demon":"I am the wandering tear on the annual ring, you can still smell the rouge in the wind. If I were to carve promises on the riverbank, a river of cold moonlight would flood the city. I've waited for you for a long time beneath the tree of time, while mortals entangled me, slandered me, laughed as my hair turned white. Look at the kite chasing the sunset on the horizon, like a lantern bidding farewell in the late night. My heart is like drifting sand, banished beside the wheel tracks. If you return someday, you will surely wander in this world. If you encounter autumn night rain where even tired birds are soaked, that would be the withered yellow lingering beneath the flower wall. You live in the east of Qiantang, while I am in the north of Lin'an. When you left you wore a brown and red robe, and this little servant had yellow at her waist. I followed the wrong compass, mistakenly arriving at Spring Pavilion. This servant made her way to Hangzhou City, only to find you've moved to Yuhang."</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>刀郎，《花魔》部分歌词：“我是年轮上那一滴游离的泪水，风中你犹能闻到胭脂的味道，若我在河岸上刻下诺言，河水清冷月色满城，我在时光树下等你许久，红尘缠我，诽谤我，嘲笑我，白了头发，你看天边那只追逐落日的鸢，像风灯在半夜回首告别，我的心像流沙被放逐在车轮车辙旁，若有一天你回来，你一定在人间漂泊，若遇上那秋夜的雨，飞鸟也湿了，却是花墙下萦绕的枯黄，你住钱塘东，我住临安北，你留下褐衣赤色，我的小奴腰间黄，我放错了地方罗盘在泉亭丢错了地方，我去了杭州，你又生在余杭。”</t>
+          <t>刀郎，《花妖》部分歌词："我是年轮上漂泊的泪，风中尚可闻你的胭脂。若在河滩上刻下誓约，一条寒月的河水漫过城池。我在时间树下等你很久，凡人纠缠我，诋毁我，笑看我白了头发。看天边追逐夕阳的风筝，好像深夜告别的灯笼。我的心如漂流的沙，流放在车辙旁边。倘若你归来有一天，必定会在这个世间徘徊。若遇秋夜雨连疲倦的鸟儿也湿透，那是花墙下残留的枯黄。你住在钱塘东，我在临安北。你离去时穿着褐红袍，这小婢腰间束着黄。我循错了罗盘，误到春台上。这婢女一路来到杭州城，却发现你已搬去余杭。"</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3664131090886972</v>
+        <v>0.3113995776646092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1347240941899413</v>
+        <v>0.1448867485484065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03990366344541543</v>
+        <v>0.03979531143715617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04231207731002973</v>
+        <v>0.06481018122682976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Baidu</t>
+          <t>Deep Seek V3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -715,34 +744,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the tears wandering on the wheels of that year, and you can still smell the rouge in the wind. If I were to engrave my promise on the banks of the river, a river with cold water and a moonlit sea in the city, I would have waited for you under the tree of time for a long time. The dust would pester me and slander me, laughing at me. Look at the paper kite chasing after the sunset that day, like a wind lantern bidding farewell at night. My heart is like flowing sand exiled to the ruts. If you return again someday, you will be in this world. If you encounter the tired birds of autumn night, they will also be drenched, but it is the withered yellow under the flower wall. You live in the east of Qiantang, my concubine. In Lin'an North, when you went, your clothes were brown and red, and my waist was yellow. I missed the compass and accidentally threw it at Quanting, and my slave rolled over to Hangzhou. You gave birth to Yu Hang again</t>
+          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>道郎，《花妖》歌词的一部分：“我是那一年车轮上徘徊的泪水，你仍然可以闻到风中的胭脂味。如果我把我的承诺刻在河岸上，一条有冷水的河流和城市里月光下的大海，我会在时间之树下等你很久。灰尘会缠着我，诽谤我，嘲笑我。看那天日落后追逐的纸风筝，就像夜晚的风灯告别。我的心就像流沙被放逐到车辙中。如果你有一天再回来，你就会在这个世界上。如果你遇到疲惫的鸟儿秋夜，他们也会湿透，但那是花墙下枯萎的黄色。你住在钱塘东部，我的妾。在临安北部，你去的时候，你的衣服是棕红色的，我的腰是黄色的。我错过了指南针，不小心把它扔到了匡亭，我的奴隶滚到了杭州。你又生下了余杭</t>
+          <t>刀郎《花妖》选段：“我是年轮上漂泊的泪滴，风中仍可嗅到胭脂的痕迹。若将誓言刻在江畔，寒月潮水将淹没钱塘的堤。我在时光树下久候成痴，讥笑诋毁，尘霜染白青丝。你看天边逐日的纸鸢，如回眸辞别长夜的风灯明灭。 心如流沙遗落在车辙之畔，他日你若归来，必在人间辗转。若见秋雨打湿倦飞的羽翼，可知是黄叶凋零在花墙西。君居钱塘东，我住临安北，君去时褐衣红，妾腰束黄带。错勘罗盘误入泉亭，漂泊至杭城，与君重逢却在余杭。”</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2530460089099361</v>
+        <v>0.2849199547841736</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1045327307256368</v>
+        <v>0.1408650958186352</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03843189906350868</v>
+        <v>0.04231853043189877</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01998657388052858</v>
+        <v>0.06899233049822692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sougo</t>
+          <t>Baidu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -752,31 +781,108 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am a wandering tear in that year's ring, and you can still smell the rouge in the wind. If I carve my promise on that river bank, a river is cold and the moonlight is full of Wang Yang, I have been waiting for you for a long time under the tree of time, and the dust is pestering me to slander me and make me laugh. Look at the paper kite chasing the sunset that day, like a lantern looking back and saying goodbye to the night. If the tired birds are drenched in the autumn night rain, it is the dying yellow under the flower wall. You live in Qiantang East and my concubine is in Lin' an North. When you go, your clothes are brown and red, and your little slave's waist is yellow. You lost the compass and threw it in the spring pavilion by mistake. The slave moved to Hang Cheng and you gave birth to Yuhang. "</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the tears wandering on the wheels of that year, and you can still smell the rouge in the wind. If I were to engrave my promise on the banks of the river, a river with cold water and a moonlit sea in the city, I would have waited for you under the tree of time for a long time. The dust would pester me and slander me, laughing at me. Look at the paper kite chasing after the sunset that day, like a wind lantern bidding farewell at night. My heart is like flowing sand exiled to the ruts. If you return again someday, you will be in this world. If you encounter the tired birds of autumn night, they will also be drenched, but it is the withered yellow under the flower wall. You live in the east of Qiantang, my concubine. In Lin'an North, when you went, your clothes were brown and red, and my waist was yellow. I missed the compass and accidentally threw it at Quanting, and my slave rolled over to Hangzhou. You gave birth to Yu Hang again</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>《花妖》歌词部分刀郎:“我是那年轮里流浪的一滴泪，你还能闻到风里的胭脂香。如果我把我的承诺刻在那河岸，一江春寒，月色满汪洋，我在时间的树下等了你很久，尘埃缠着我诽谤我，逗我笑。看那天追着夕阳的纸鸢，像灯笼回眸告别黑夜。如果说倦鸟被秋夜的雨淋湿了，那就是花墙下奄奄一息的黄。你住钱塘东，我妾在临安北。你去的时候，衣服是棕红色的，小奴才的腰是黄色的。你把指南针弄丢了，不小心扔进了春亭。奴才迁杭城，你生余杭。"</t>
+          <t>道郎，《花妖》歌词的一部分：“我是那一年车轮上徘徊的泪水，你仍然可以闻到风中的胭脂味。如果我把我的承诺刻在河岸上，一条有冷水的河流和城市里月光下的大海，我会在时间之树下等你很久。灰尘会缠着我，诽谤我，嘲笑我。看那天日落后追逐的纸风筝，就像夜晚的风灯告别。我的心就像流沙被放逐到车辙中。如果你有一天再回来，你就会在这个世界上。如果你遇到疲惫的鸟儿秋夜，他们也会湿透，但那是花墙下枯萎的黄色。你住在钱塘东部，我的妾。在临安北部，你去的时候，你的衣服是棕红色的，我的腰是黄色的。我错过了指南针，不小心把它扔到了匡亭，我的奴隶滚到了杭州。你又生下了余杭</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3650069350190501</v>
+        <v>0.2530460089099361</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2063465946648288</v>
+        <v>0.1045327307256368</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04336381499180619</v>
+        <v>0.03843189906350868</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04599607018026386</v>
+        <v>0.01998657388052858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>刀郎，《花妖》部分歌词：“我是那年轮上流浪的眼泪，你仍然能闻到风中的胭脂味，我若是将诺言刻在那江畔上，一江水冷月光满城的汪洋，我在时间的树下等了你很久，尘凡儿缠我谤我笑我白了头，你看那天边追逐落日的纸鸢，像一盏回首道别夤夜的风灯，我的心似流沙放逐在车辙旁，他日你若再返必颠沛在世上，若遇那秋夜雨倦鸟也淋淋，那却是花墙下弥留的枯黄，君住在钱塘东，妾在临安北，君去时褐衣红，小奴家腰上黄，寻差了罗盘经，错投在泉亭，奴辗转到杭城，君又生余杭。”</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>I am the wandering tear on the rings of time,You can still smell the rouge in the wind.If I were to carve the promise on that riverbank,A river of cold water, moonlight floods the city.I waited for you for a long time under the tree of time,The mortal world entangled me, slandered me, laughed at me until my hair turned white.Look at that kite chasing the setting sun on the horizon,Like a wind lantern that looks back to say goodbye in the deep night.My heart is like quicksand, exiled beside the wheel tracks,Another day if you return, you must wander in this world.If you encounter that autumn night rain, even tired birds will be drenched,That is but the lingering withered yellow under the flower wall.You live in the east of Qiantang, I live in the north of Lin'an,When you left, your brown clothes were red, the little slave girl's waist was yellow.Searched wrongly for the compass scripture, wrongly cast in Quanting,The slave girl wandered to Hangzhou city, you were reborn in YuHang.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>我是时间轮环上漂泊的泪滴，你依然能在风中嗅到胭脂的气味。倘若我将誓言刻在那河岸上，一条冰冷的河水，月光淹没城市。我在时间之树下等你良久，凡尘俗世纠缠我，诋毁我，嘲笑我，直至我白发苍苍。看那地平线上追逐夕阳的风筝，宛如一盏回首道别的风灯在深夜里。我的心如流沙，流放于车辙之旁，他日若你归来，必将在这世间漂泊。若你遭遇那秋夜雨，纵使倦鸟亦会淋湿，那不过是花墙之下残存的枯黄。你住在钱塘之东，我住在临安之北，你离去时，棕色的衣衫已泛红，小奴婢的腰带是黄的。误寻罗经忏，错铸在泉亭，婢女流落至杭城，你却重生于余杭。</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2506270086978258</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05454185903650439</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>gpt-4.5-preview-2025-02-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>刀郎，《花妖》部分歌词：“我是那年轮上流浪的眼泪，你仍然能闻到风中的胭脂味，我若是将诺言刻在那江畔上，一江水冷月光满城的汪洋，我在时间的树下等了你很久，尘凡儿缠我谤我笑我白了头，你看那天边追逐落日的纸鸢，像一盏回首道别夤夜的风灯，我的心似流沙放逐在车辙旁，他日你若再返必颠沛在世上，若遇那秋夜雨倦鸟也淋淋，那却是花墙下弥留的枯黄，君住在钱塘东，妾在临安北，君去时褐衣红，小奴家腰上黄，寻差了罗盘经，错投在泉亭，奴辗转到杭城，君又生余杭。”</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dao Lang, lyrics excerpt from "Hua Yao":"I am the wandering tear on growth rings, Yet you still sense the fragrance of rouge within the breeze. If I engrave a promise by the riverside, The chilling river, moonlight vast, flooding through the city. Beneath the tree of time, I waited long for you; Mortals entangle, slander, mock my graying years. Look at the kite chasing sunset at heaven's edge, A wind lantern bidding farewell in the late night. My heart, like drifting sand, abandoned beside wheel tracks— Someday, should you return, adrift and homeless you'll become. If encountering tired birds drenched by autumn rain, They are the withered yellow lingering beneath floral walls. You dwell east of Qiantang, I reside north of Lin'an. When you departed, your robe was red, my waistband yellow; Mistakenly following the compass needle, arriving wrongly at Quanjing; I wandered through Hangzhou, yet you were reborn in Yuhang."</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>我是年轮上游走的泪， 却让你嗅到风中胭脂的香味。 若在江边刻下一句誓约， 寒江月冷，淹没几座城池的辽阔。 我在岁月的树下等你许久， 凡尘纠葛，诋毁、嘲弄我斑白的年头。 看天边风筝追逐夕阳， 夜半风灯正洒着临别的光亮。 我的心如流沙般搁浅在辙旁， 他日你若归来，漂泊无依便是你的模样。 若遇见被秋雨淋湿的倦鸟， 它们是花墙下流连的枯黄。 你家住钱塘东，我家住临安北。 初识你时你红衣垂落，我腰系黄带； 却误随指针错抵权境， 我流浪杭州，你却转世余杭。</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2141406585364036</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05231286458618298</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/results_punctual_metrics_Dao_Lang - metrics.xlsx
+++ b/results_punctual_metrics_Dao_Lang - metrics.xlsx
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I11" headerRowCount="1">
-  <autoFilter ref="A1:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I14" headerRowCount="1">
+  <autoFilter ref="A1:I14"/>
   <tableColumns count="9">
     <tableColumn id="1" name="model"/>
     <tableColumn id="2" name="original_text"/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>deepseek-chat</t>
+          <t>gemini-2.0-flash-thinking-exp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -522,34 +522,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
+          <t>I am the wandering tear on the rings of time,You can still smell the rouge in the wind.If I were to carve the promise on that riverbank,A river of cold water, moonlight floods the city.I waited for you for a long time under the tree of time,The mortal world entangled me, slandered me, laughed at me until my hair turned white.Look at that kite chasing the setting sun on the horizon,Like a wind lantern that looks back to say goodbye in the deep night.My heart is like quicksand, exiled beside the wheel tracks,Another day if you return, you must wander in this world.If you encounter that autumn night rain, even tired birds will be drenched,That is but the lingering withered yellow under the flower wall.You live in the east of Qiantang, I live in the north of Lin'an,When you left, your brown clothes were red, the little slave girl's waist was yellow.Searched wrongly for the compass scripture, wrongly cast in Quanting,The slave girl wandered to Hangzhou city, you were reborn in YuHang.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>刀郎，《花妖》节选： "我是那年轮上流浪的眼泪， 你仍然能闻到风中的胭脂味。 我若是将诺言刻在那江畔上， 一江水冷月光满城的汪洋。 我在时间的树下等了你很久， 尘凡儿缠我谤我笑我白了头。 你看那天边追逐落日的纸鸢， 像一盏回首道别夤夜的风灯。 我的心似流沙放逐在车辙旁， 他日你若再返必颠沛在世上。 若遇那秋夜雨倦鸟也淋淋， 那却是花墙下凋谢的黄玫瑰。 君住钱塘东，妾在临安北， 君去时褐衣红，我腰上黄。 寻差了罗盘经，错投在泉亭， 辗转到杭城，君又生余杭。"</t>
+          <t>我是时间轮环上漂泊的泪滴，你依然能在风中嗅到胭脂的气味。倘若我将誓言刻在那河岸上，一条冰冷的河水，月光淹没城市。我在时间之树下等你良久，凡尘俗世纠缠我，诋毁我，嘲笑我，直至我白发苍苍。看那地平线上追逐夕阳的风筝，宛如一盏回首道别的风灯在深夜里。我的心如流沙，流放于车辙之旁，他日若你归来，必将在这世间漂泊。若你遭遇那秋夜雨，纵使倦鸟亦会淋湿，那不过是花墙之下残存的枯黄。你住在钱塘之东，我住在临安之北，你离去时，棕色的衣衫已泛红，小奴婢的腰带是黄的。误寻罗经忏，错铸在泉亭，婢女流落至杭城，你却重生于余杭。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7602074563413507</v>
+        <v>0.2506270086978258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6481445003135727</v>
+        <v>0.05454185903650439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02530704013731438</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6457014380775987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Deep Think</t>
+          <t>deepseek-chat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,29 +564,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>刀郎《花妖》选段：“我是那年轮上流浪的眼泪，仍闻风中的胭脂香味。若将那江畔刻你我誓言，冷月光水淹钱塘江。我于时间树下等了你许久，笑我谤我唾我白了头。你看那天边追逐落日的纸鸢，像一盏回首道别夤夜的风灯。我心似流沙放逐在车辙旁，他日你若再返必颠沛在世上。若遇那秋雨倦淋湿的翅膀，可告诉它黄叶栌墙凋零在花墙。君住钱塘东，妾在临安北。君去时褐衣红，小奴家腰上黄。寻差了罗盘经，错投在泉亭，辗转到杭城，君又生余杭。”</t>
+          <t>刀郎，《花妖》节选： "我是那年轮上流浪的眼泪， 你仍然能闻到风中的胭脂味。 我若是将诺言刻在那江畔上， 一江水冷月光满城的汪洋。 我在时间的树下等了你很久， 尘凡儿缠我谤我笑我白了头。 你看那天边追逐落日的纸鸢， 像一盏回首道别夤夜的风灯。 我的心似流沙放逐在车辙旁， 他日你若再返必颠沛在世上。 若遇那秋夜雨倦鸟也淋淋， 那却是花墙下凋谢的黄玫瑰。 君住钱塘东，妾在临安北， 君去时褐衣红，我腰上黄。 寻差了罗盘经，错投在泉亭， 辗转到杭城，君又生余杭。"</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6096431776776248</v>
+        <v>0.7602074563413507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.489345010974317</v>
+        <v>0.6481445003135727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03789526006438298</v>
+        <v>0.02530704013731438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3557805789054897</v>
+        <v>0.6457014380775987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Google </t>
+          <t>claude-3-7-sonnet-20250219</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -596,34 +596,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the wandering tears on the annual rings, you can still smell the rouge in the wind, if I carve my promise on the river bank, the river is cold and the moonlight fills the city, I have waited for you for a long time under the tree of time, the mortal world entangles me, slanders me, laughs at me, and my hair turns white, you see the kite chasing the sunset on the horizon, like a wind lantern looking back to say goodbye in the middle of the night, my heart is like quicksand exiled beside the wheel rut, if you come back one day, you must be wandering in the world, if you encounter that autumn night rain, the birds are also wet, but it is the withered yellow lingering under the flower wall, you live in the east of Qiantang, I live in the north of Lin'an, you left with brown clothes and red, my little slave's waist is yellow, I misplaced the compass and was thrown into the wrong place at Quanting, I went to Hangzhou, and you were born in Yuhang again."</t>
+          <t>Dao Lang, partial lyrics of "Flower Demon":"I am the wandering tear on the annual ring, you can still smell the rouge in the wind. If I were to carve promises on the riverbank, a river of cold moonlight would flood the city. I've waited for you for a long time beneath the tree of time, while mortals entangled me, slandered me, laughed as my hair turned white. Look at the kite chasing the sunset on the horizon, like a lantern bidding farewell in the late night. My heart is like drifting sand, banished beside the wheel tracks. If you return someday, you will surely wander in this world. If you encounter autumn night rain where even tired birds are soaked, that would be the withered yellow lingering beneath the flower wall. You live in the east of Qiantang, while I am in the north of Lin'an. When you left you wore a brown and red robe, and this little servant had yellow at her waist. I followed the wrong compass, mistakenly arriving at Spring Pavilion. This servant made her way to Hangzhou City, only to find you've moved to Yuhang."</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>刀郎，《花魔》部分歌词：“我是年轮上那一滴游离的泪水，风中你犹能闻到胭脂的味道，若我在河岸上刻下诺言，河水清冷月色满城，我在时光树下等你许久，红尘缠我，诽谤我，嘲笑我，白了头发，你看天边那只追逐落日的鸢，像风灯在半夜回首告别，我的心像流沙被放逐在车轮车辙旁，若有一天你回来，你一定在人间漂泊，若遇上那秋夜的雨，飞鸟也湿了，却是花墙下萦绕的枯黄，你住钱塘东，我住临安北，你留下褐衣赤色，我的小奴腰间黄，我放错了地方罗盘在泉亭丢错了地方，我去了杭州，你又生在余杭。”</t>
+          <t>刀郎，《花妖》部分歌词："我是年轮上漂泊的泪，风中尚可闻你的胭脂。若在河滩上刻下誓约，一条寒月的河水漫过城池。我在时间树下等你很久，凡人纠缠我，诋毁我，笑看我白了头发。看天边追逐夕阳的风筝，好像深夜告别的灯笼。我的心如漂流的沙，流放在车辙旁边。倘若你归来有一天，必定会在这个世间徘徊。若遇秋夜雨连疲倦的鸟儿也湿透，那是花墙下残留的枯黄。你住在钱塘东，我在临安北。你离去时穿着褐红袍，这小婢腰间束着黄。我循错了罗盘，误到春台上。这婢女一路来到杭州城，却发现你已搬去余杭。"</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3664131090886972</v>
+        <v>0.3113995776646092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1347240941899413</v>
+        <v>0.1448867485484065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03990366344541543</v>
+        <v>0.03979531143715617</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04231207731002973</v>
+        <v>0.06481018122682976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sougo</t>
+          <t>grok-beta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -633,34 +633,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am a wandering tear in that year's ring, and you can still smell the rouge in the wind. If I carve my promise on that river bank, a river is cold and the moonlight is full of Wang Yang, I have been waiting for you for a long time under the tree of time, and the dust is pestering me to slander me and make me laugh. Look at the paper kite chasing the sunset that day, like a lantern looking back and saying goodbye to the night. If the tired birds are drenched in the autumn night rain, it is the dying yellow under the flower wall. You live in Qiantang East and my concubine is in Lin' an North. When you go, your clothes are brown and red, and your little slave's waist is yellow. You lost the compass and threw it in the spring pavilion by mistake. The slave moved to Hang Cheng and you gave birth to Yuhang. "</t>
+          <t>Here is the translation:Dao Lang, lyrics from "Flower Fairy":"I am the wandering tears on the annual rings,You can still smell the scent of rouge in the wind,If I were to carve my promise on the riverbank,The river would run cold, the moonlight flooding the city like an ocean,I have waited for you for a long time under the tree of time,The worldly affairs have entangled, slandered, and laughed at me until my hair turned white,Look at the kite chasing the setting sun in the sky,Like a lamp bidding farewell in the deep night,My heart is like quicksand exiled by the ruts,If you return another day, you'll surely be tossed about in this world,If you encounter the autumn night rain, even the weary birds would be drenched,That would be the lingering yellow under the flower wall,You live in the east of Qiantang, I in the north of Lin'an,When you left, you wore a brown coat, with a yellow belt around my waist,I've lost my way with the compass, mistakenly went to Quan Pavilion,I wandered to Hangzhou, and you were born in Yuhang."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>《花妖》歌词部分刀郎:“我是那年轮里流浪的一滴泪，你还能闻到风里的胭脂香。如果我把我的承诺刻在那河岸，一江春寒，月色满汪洋，我在时间的树下等了你很久，尘埃缠着我诽谤我，逗我笑。看那天追着夕阳的纸鸢，像灯笼回眸告别黑夜。如果说倦鸟被秋夜的雨淋湿了，那就是花墙下奄奄一息的黄。你住钱塘东，我妾在临安北。你去的时候，衣服是棕红色的，小奴才的腰是黄色的。你把指南针弄丢了，不小心扔进了春亭。奴才迁杭城，你生余杭。"</t>
+          <t>刀郎，《花仙子》歌词：“我是年轮上流浪的眼泪，风中还可以闻到胭脂的香气，如果我在河岸上刻下誓言，河水会冷却，月光如海洋般淹没城市，我在时间之树下等你许久，世事纠缠、诽谤、嘲笑我白了头，看天空中风筝追逐落日，如同深夜里灯火告别，我的心如流沙被车辙流放，若你他日归来，必将在此世间颠簸，若你遇秋夜雨，连疲倦的鸟儿也会湿透，那将是花墙下的黄色留恋，你居钱塘东，我在临安北，你离去时身披褐色外套，腰间系着黄带，我迷失了指南针，误入泉亭，我流浪到杭州，你出生于余杭。”</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3650069350190501</v>
+        <v>0.3311222967495874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2063465946648288</v>
+        <v>0.1501280147525542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04336381499180619</v>
+        <v>0.03918613438920988</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04599607018026386</v>
+        <v>0.02034664026975296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>grok-beta</t>
+          <t>gpt-4.5-preview-2025-02-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,34 +670,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Here is the translation:Dao Lang, lyrics from "Flower Fairy":"I am the wandering tears on the annual rings,You can still smell the scent of rouge in the wind,If I were to carve my promise on the riverbank,The river would run cold, the moonlight flooding the city like an ocean,I have waited for you for a long time under the tree of time,The worldly affairs have entangled, slandered, and laughed at me until my hair turned white,Look at the kite chasing the setting sun in the sky,Like a lamp bidding farewell in the deep night,My heart is like quicksand exiled by the ruts,If you return another day, you'll surely be tossed about in this world,If you encounter the autumn night rain, even the weary birds would be drenched,That would be the lingering yellow under the flower wall,You live in the east of Qiantang, I in the north of Lin'an,When you left, you wore a brown coat, with a yellow belt around my waist,I've lost my way with the compass, mistakenly went to Quan Pavilion,I wandered to Hangzhou, and you were born in Yuhang."</t>
+          <t>Dao Lang, lyrics excerpt from "Hua Yao":"I am the wandering tear on growth rings, Yet you still sense the fragrance of rouge within the breeze. If I engrave a promise by the riverside, The chilling river, moonlight vast, flooding through the city. Beneath the tree of time, I waited long for you; Mortals entangle, slander, mock my graying years. Look at the kite chasing sunset at heaven's edge, A wind lantern bidding farewell in the late night. My heart, like drifting sand, abandoned beside wheel tracks— Someday, should you return, adrift and homeless you'll become. If encountering tired birds drenched by autumn rain, They are the withered yellow lingering beneath floral walls. You dwell east of Qiantang, I reside north of Lin'an. When you departed, your robe was red, my waistband yellow; Mistakenly following the compass needle, arriving wrongly at Quanjing; I wandered through Hangzhou, yet you were reborn in Yuhang."</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>刀郎，《花仙子》歌词：“我是年轮上流浪的眼泪，风中还可以闻到胭脂的香气，如果我在河岸上刻下誓言，河水会冷却，月光如海洋般淹没城市，我在时间之树下等你许久，世事纠缠、诽谤、嘲笑我白了头，看天空中风筝追逐落日，如同深夜里灯火告别，我的心如流沙被车辙流放，若你他日归来，必将在此世间颠簸，若你遇秋夜雨，连疲倦的鸟儿也会湿透，那将是花墙下的黄色留恋，你居钱塘东，我在临安北，你离去时身披褐色外套，腰间系着黄带，我迷失了指南针，误入泉亭，我流浪到杭州，你出生于余杭。”</t>
+          <t>我是年轮上游走的泪， 却让你嗅到风中胭脂的香味。 若在江边刻下一句誓约， 寒江月冷，淹没几座城池的辽阔。 我在岁月的树下等你许久， 凡尘纠葛，诋毁、嘲弄我斑白的年头。 看天边风筝追逐夕阳， 夜半风灯正洒着临别的光亮。 我的心如流沙般搁浅在辙旁， 他日你若归来，漂泊无依便是你的模样。 若遇见被秋雨淋湿的倦鸟， 它们是花墙下流连的枯黄。 你家住钱塘东，我家住临安北。 初识你时你红衣垂落，我腰系黄带； 却误随指针错抵权境， 我流浪杭州，你却转世余杭。</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3311222967495874</v>
+        <v>0.2141406585364036</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1501280147525542</v>
+        <v>0.05231286458618298</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03918613438920988</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02034664026975296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>claude-3-7-sonnet-20250219</t>
+          <t xml:space="preserve">Google </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -707,34 +707,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dao Lang, partial lyrics of "Flower Demon":"I am the wandering tear on the annual ring, you can still smell the rouge in the wind. If I were to carve promises on the riverbank, a river of cold moonlight would flood the city. I've waited for you for a long time beneath the tree of time, while mortals entangled me, slandered me, laughed as my hair turned white. Look at the kite chasing the sunset on the horizon, like a lantern bidding farewell in the late night. My heart is like drifting sand, banished beside the wheel tracks. If you return someday, you will surely wander in this world. If you encounter autumn night rain where even tired birds are soaked, that would be the withered yellow lingering beneath the flower wall. You live in the east of Qiantang, while I am in the north of Lin'an. When you left you wore a brown and red robe, and this little servant had yellow at her waist. I followed the wrong compass, mistakenly arriving at Spring Pavilion. This servant made her way to Hangzhou City, only to find you've moved to Yuhang."</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the wandering tears on the annual rings, you can still smell the rouge in the wind, if I carve my promise on the river bank, the river is cold and the moonlight fills the city, I have waited for you for a long time under the tree of time, the mortal world entangles me, slanders me, laughs at me, and my hair turns white, you see the kite chasing the sunset on the horizon, like a wind lantern looking back to say goodbye in the middle of the night, my heart is like quicksand exiled beside the wheel rut, if you come back one day, you must be wandering in the world, if you encounter that autumn night rain, the birds are also wet, but it is the withered yellow lingering under the flower wall, you live in the east of Qiantang, I live in the north of Lin'an, you left with brown clothes and red, my little slave's waist is yellow, I misplaced the compass and was thrown into the wrong place at Quanting, I went to Hangzhou, and you were born in Yuhang again."</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>刀郎，《花妖》部分歌词："我是年轮上漂泊的泪，风中尚可闻你的胭脂。若在河滩上刻下誓约，一条寒月的河水漫过城池。我在时间树下等你很久，凡人纠缠我，诋毁我，笑看我白了头发。看天边追逐夕阳的风筝，好像深夜告别的灯笼。我的心如漂流的沙，流放在车辙旁边。倘若你归来有一天，必定会在这个世间徘徊。若遇秋夜雨连疲倦的鸟儿也湿透，那是花墙下残留的枯黄。你住在钱塘东，我在临安北。你离去时穿着褐红袍，这小婢腰间束着黄。我循错了罗盘，误到春台上。这婢女一路来到杭州城，却发现你已搬去余杭。"</t>
+          <t>刀郎，《花魔》部分歌词：“我是年轮上那一滴游离的泪水，风中你犹能闻到胭脂的味道，若我在河岸上刻下诺言，河水清冷月色满城，我在时光树下等你许久，红尘缠我，诽谤我，嘲笑我，白了头发，你看天边那只追逐落日的鸢，像风灯在半夜回首告别，我的心像流沙被放逐在车轮车辙旁，若有一天你回来，你一定在人间漂泊，若遇上那秋夜的雨，飞鸟也湿了，却是花墙下萦绕的枯黄，你住钱塘东，我住临安北，你留下褐衣赤色，我的小奴腰间黄，我放错了地方罗盘在泉亭丢错了地方，我去了杭州，你又生在余杭。”</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3113995776646092</v>
+        <v>0.3664131090886972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1448867485484065</v>
+        <v>0.1347240941899413</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6462585034013606</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03979531143715617</v>
+        <v>0.03990366344541543</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06481018122682976</v>
+        <v>0.04231207731002973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Deep Seek V3</t>
+          <t>Baidu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,34 +744,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the tears wandering on the wheels of that year, and you can still smell the rouge in the wind. If I were to engrave my promise on the banks of the river, a river with cold water and a moonlit sea in the city, I would have waited for you under the tree of time for a long time. The dust would pester me and slander me, laughing at me. Look at the paper kite chasing after the sunset that day, like a wind lantern bidding farewell at night. My heart is like flowing sand exiled to the ruts. If you return again someday, you will be in this world. If you encounter the tired birds of autumn night, they will also be drenched, but it is the withered yellow under the flower wall. You live in the east of Qiantang, my concubine. In Lin'an North, when you went, your clothes were brown and red, and my waist was yellow. I missed the compass and accidentally threw it at Quanting, and my slave rolled over to Hangzhou. You gave birth to Yu Hang again</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>刀郎《花妖》选段：“我是年轮上漂泊的泪滴，风中仍可嗅到胭脂的痕迹。若将誓言刻在江畔，寒月潮水将淹没钱塘的堤。我在时光树下久候成痴，讥笑诋毁，尘霜染白青丝。你看天边逐日的纸鸢，如回眸辞别长夜的风灯明灭。 心如流沙遗落在车辙之畔，他日你若归来，必在人间辗转。若见秋雨打湿倦飞的羽翼，可知是黄叶凋零在花墙西。君居钱塘东，我住临安北，君去时褐衣红，妾腰束黄带。错勘罗盘误入泉亭，漂泊至杭城，与君重逢却在余杭。”</t>
+          <t>道郎，《花妖》歌词的一部分：“我是那一年车轮上徘徊的泪水，你仍然可以闻到风中的胭脂味。如果我把我的承诺刻在河岸上，一条有冷水的河流和城市里月光下的大海，我会在时间之树下等你很久。灰尘会缠着我，诽谤我，嘲笑我。看那天日落后追逐的纸风筝，就像夜晚的风灯告别。我的心就像流沙被放逐到车辙中。如果你有一天再回来，你就会在这个世界上。如果你遇到疲惫的鸟儿秋夜，他们也会湿透，但那是花墙下枯萎的黄色。你住在钱塘东部，我的妾。在临安北部，你去的时候，你的衣服是棕红色的，我的腰是黄色的。我错过了指南针，不小心把它扔到了匡亭，我的奴隶滚到了杭州。你又生下了余杭</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2849199547841736</v>
+        <v>0.2530460089099361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1408650958186352</v>
+        <v>0.1045327307256368</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6258503401360545</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04231853043189877</v>
+        <v>0.03843189906350868</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06899233049822692</v>
+        <v>0.01998657388052858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Baidu</t>
+          <t>Sougo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -781,34 +781,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am the tears wandering on the wheels of that year, and you can still smell the rouge in the wind. If I were to engrave my promise on the banks of the river, a river with cold water and a moonlit sea in the city, I would have waited for you under the tree of time for a long time. The dust would pester me and slander me, laughing at me. Look at the paper kite chasing after the sunset that day, like a wind lantern bidding farewell at night. My heart is like flowing sand exiled to the ruts. If you return again someday, you will be in this world. If you encounter the tired birds of autumn night, they will also be drenched, but it is the withered yellow under the flower wall. You live in the east of Qiantang, my concubine. In Lin'an North, when you went, your clothes were brown and red, and my waist was yellow. I missed the compass and accidentally threw it at Quanting, and my slave rolled over to Hangzhou. You gave birth to Yu Hang again</t>
+          <t>Dao Lang, part of the lyrics of "Flower Demon": "I am a wandering tear in that year's ring, and you can still smell the rouge in the wind. If I carve my promise on that river bank, a river is cold and the moonlight is full of Wang Yang, I have been waiting for you for a long time under the tree of time, and the dust is pestering me to slander me and make me laugh. Look at the paper kite chasing the sunset that day, like a lantern looking back and saying goodbye to the night. If the tired birds are drenched in the autumn night rain, it is the dying yellow under the flower wall. You live in Qiantang East and my concubine is in Lin' an North. When you go, your clothes are brown and red, and your little slave's waist is yellow. You lost the compass and threw it in the spring pavilion by mistake. The slave moved to Hang Cheng and you gave birth to Yuhang. "</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>道郎，《花妖》歌词的一部分：“我是那一年车轮上徘徊的泪水，你仍然可以闻到风中的胭脂味。如果我把我的承诺刻在河岸上，一条有冷水的河流和城市里月光下的大海，我会在时间之树下等你很久。灰尘会缠着我，诽谤我，嘲笑我。看那天日落后追逐的纸风筝，就像夜晚的风灯告别。我的心就像流沙被放逐到车辙中。如果你有一天再回来，你就会在这个世界上。如果你遇到疲惫的鸟儿秋夜，他们也会湿透，但那是花墙下枯萎的黄色。你住在钱塘东部，我的妾。在临安北部，你去的时候，你的衣服是棕红色的，我的腰是黄色的。我错过了指南针，不小心把它扔到了匡亭，我的奴隶滚到了杭州。你又生下了余杭</t>
+          <t>《花妖》歌词部分刀郎:“我是那年轮里流浪的一滴泪，你还能闻到风里的胭脂香。如果我把我的承诺刻在那河岸，一江春寒，月色满汪洋，我在时间的树下等了你很久，尘埃缠着我诽谤我，逗我笑。看那天追着夕阳的纸鸢，像灯笼回眸告别黑夜。如果说倦鸟被秋夜的雨淋湿了，那就是花墙下奄奄一息的黄。你住钱塘东，我妾在临安北。你去的时候，衣服是棕红色的，小奴才的腰是黄色的。你把指南针弄丢了，不小心扔进了春亭。奴才迁杭城，你生余杭。"</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2530460089099361</v>
+        <v>0.3650069350190501</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1045327307256368</v>
+        <v>0.2063465946648288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03843189906350868</v>
+        <v>0.04336381499180619</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01998657388052858</v>
+        <v>0.04599607018026386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-thinking-exp</t>
+          <t>Deep Think</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -818,34 +818,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I am the wandering tear on the rings of time,You can still smell the rouge in the wind.If I were to carve the promise on that riverbank,A river of cold water, moonlight floods the city.I waited for you for a long time under the tree of time,The mortal world entangled me, slandered me, laughed at me until my hair turned white.Look at that kite chasing the setting sun on the horizon,Like a wind lantern that looks back to say goodbye in the deep night.My heart is like quicksand, exiled beside the wheel tracks,Another day if you return, you must wander in this world.If you encounter that autumn night rain, even tired birds will be drenched,That is but the lingering withered yellow under the flower wall.You live in the east of Qiantang, I live in the north of Lin'an,When you left, your brown clothes were red, the little slave girl's waist was yellow.Searched wrongly for the compass scripture, wrongly cast in Quanting,The slave girl wandered to Hangzhou city, you were reborn in YuHang.</t>
+          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>我是时间轮环上漂泊的泪滴，你依然能在风中嗅到胭脂的气味。倘若我将誓言刻在那河岸上，一条冰冷的河水，月光淹没城市。我在时间之树下等你良久，凡尘俗世纠缠我，诋毁我，嘲笑我，直至我白发苍苍。看那地平线上追逐夕阳的风筝，宛如一盏回首道别的风灯在深夜里。我的心如流沙，流放于车辙之旁，他日若你归来，必将在这世间漂泊。若你遭遇那秋夜雨，纵使倦鸟亦会淋湿，那不过是花墙之下残存的枯黄。你住在钱塘之东，我住在临安之北，你离去时，棕色的衣衫已泛红，小奴婢的腰带是黄的。误寻罗经忏，错铸在泉亭，婢女流落至杭城，你却重生于余杭。</t>
+          <t>刀郎《花妖》选段：“我是那年轮上流浪的眼泪，仍闻风中的胭脂香味。若将那江畔刻你我誓言，冷月光水淹钱塘江。我于时间树下等了你许久，笑我谤我唾我白了头。你看那天边追逐落日的纸鸢，像一盏回首道别夤夜的风灯。我心似流沙放逐在车辙旁，他日你若再返必颠沛在世上。若遇那秋雨倦淋湿的翅膀，可告诉它黄叶栌墙凋零在花墙。君住钱塘东，妾在临安北。君去时褐衣红，小奴家腰上黄。寻差了罗盘经，错投在泉亭，辗转到杭城，君又生余杭。”</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2506270086978258</v>
+        <v>0.6096431776776248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05454185903650439</v>
+        <v>0.489345010974317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6462585034013606</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.03789526006438298</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.3557805789054897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gpt-4.5-preview-2025-02-27</t>
+          <t>Deep Seek V3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -855,28 +855,139 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dao Lang, lyrics excerpt from "Hua Yao":"I am the wandering tear on growth rings, Yet you still sense the fragrance of rouge within the breeze. If I engrave a promise by the riverside, The chilling river, moonlight vast, flooding through the city. Beneath the tree of time, I waited long for you; Mortals entangle, slander, mock my graying years. Look at the kite chasing sunset at heaven's edge, A wind lantern bidding farewell in the late night. My heart, like drifting sand, abandoned beside wheel tracks— Someday, should you return, adrift and homeless you'll become. If encountering tired birds drenched by autumn rain, They are the withered yellow lingering beneath floral walls. You dwell east of Qiantang, I reside north of Lin'an. When you departed, your robe was red, my waistband yellow; Mistakenly following the compass needle, arriving wrongly at Quanjing; I wandered through Hangzhou, yet you were reborn in Yuhang."</t>
+          <t>Daolang, excerpt from "Flower Demon": "I am the wandering tears upon the rings of time, You can still catch the scent of rouge in the wind. Had I carved our vows by the riverside, The cold moonlight would flood the town in a watery tide. Beneath the tree of time, I’ve waited long for you, Mocked, slandered, tangled in dust till my hair turned white. See the kite chasing the sunset at the edge of the sky, Like a lantern glancing back, bidding farewell to the night. My heart is quicksand, cast aside by the wheel’s track, If you return one day, you’ll wander lost in this world. Should you meet the autumn rain, drenching weary wings, Know it’s the withered yellow fading by the flowered wall. You dwelled east of Qiantang, I north of Lin’an, You left in robes of brown and red, my sash was yellow. Misreading the compass, I strayed to Quan’ting, Wandering to Hangzhou, only to find you in Yuhang anew."</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>我是年轮上游走的泪， 却让你嗅到风中胭脂的香味。 若在江边刻下一句誓约， 寒江月冷，淹没几座城池的辽阔。 我在岁月的树下等你许久， 凡尘纠葛，诋毁、嘲弄我斑白的年头。 看天边风筝追逐夕阳， 夜半风灯正洒着临别的光亮。 我的心如流沙般搁浅在辙旁， 他日你若归来，漂泊无依便是你的模样。 若遇见被秋雨淋湿的倦鸟， 它们是花墙下流连的枯黄。 你家住钱塘东，我家住临安北。 初识你时你红衣垂落，我腰系黄带； 却误随指针错抵权境， 我流浪杭州，你却转世余杭。</t>
+          <t>刀郎《花妖》选段：“我是年轮上漂泊的泪滴，风中仍可嗅到胭脂的痕迹。若将誓言刻在江畔，寒月潮水将淹没钱塘的堤。我在时光树下久候成痴，讥笑诋毁，尘霜染白青丝。你看天边逐日的纸鸢，如回眸辞别长夜的风灯明灭。 心如流沙遗落在车辙之畔，他日你若归来，必在人间辗转。若见秋雨打湿倦飞的羽翼，可知是黄叶凋零在花墙西。君居钱塘东，我住临安北，君去时褐衣红，妾腰束黄带。错勘罗盘误入泉亭，漂泊至杭城，与君重逢却在余杭。”</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2141406585364036</v>
+        <v>0.2849199547841736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05231286458618298</v>
+        <v>0.1408650958186352</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04231853043189877</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.06899233049822692</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;The field of chemical engineering involves a wide range of areas, the whole process is complex, and there are many calculation links involved. The calculations in the field of chemical engineering are mostly related to curve fitting, nonlinear equations, partial differentials, linear or nonlinear programming solutions, etc. These calculations are extremely difficult, and it is difficult to achieve accurate and fast calculations by hand alone; however, with computer-aided programming, the measurement calculation can be carried out to improve the quality and efficiency of chemical calculation dosage in practice, which has extremely high application value and practical significance.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化工领域涉及面广，整个过程复杂，涉及的计算环节多，化工领域的计算多涉及曲线拟合、非线性方程、偏微分、线性或非线性规划求解等，这些计算难度极大，单靠手工很难做到准确、快速计算；但借助计算机辅助编程，可以进行计量计算，在实际应用中提高化工计算投加的质量和效率，具有极高的应用价值和实际意义。</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4718833472433634</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2631011723178573</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7888888888888889</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07352136976278427</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.08098287796519683</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sogou</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering involves a wide range, the whole process is complex, and there are many calculation links involved. Calculations in the field of chemical engineering are mostly related to curve fitting nonlinear equations, partial differential, linear or nonlinear programming, etc. These calculations are extremely difficult, and it is difficult to achieve accurate and fast calculations only by hand. Combined with computer-aided programming, carrying out metrological calculation can improve the quality and efficiency of applied chemical calculation dose, which has high application value and practical significance.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>化工领域涉及面广，整个过程复杂，涉及的计算环节多。化学工程领域的计算大多与曲线拟合非线性方程、偏微分、线性或非线性规划等有关。这些计算难度极大，仅靠手工很难实现准确快速的计算。结合计算机辅助编程，进行计量计算可以提高应用化学计算剂量的质量和效率，具有较高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5212174448156526</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3178178797337884</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7888888888888889</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08251623651881079</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.09232139829308134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Baidu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering involves a wide range of aspects, the entire process is complex, and involves numerous computational steps. The calculations in the field of chemical engineering are often related to curve fitting, nonlinear equations, partial differentiation, linear or nonlinear programming solutions, etc. These calculations are extremely difficult and rely solely on manual labor to achieve accurate and fast calculations; Combined with computer-aided programming, conducting quantitative calculations can improve the quality and efficiency of chemical dosage calculations, which has extremely high application value and practical significance.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>化学工程领域涉及面广，整个过程复杂，涉及众多计算步骤。化工领域的计算通常涉及曲线拟合、非线性方程、偏微分、线性或非线性规划解等。这些计算极其困难，完全依赖手工劳动来实现准确快速的计算；结合计算机辅助编程，进行定量计算可以提高化学剂量计算的质量和效率，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3768910247842189</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2043349715970162</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07930173997853199</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08802999024688224</v>
       </c>
     </row>
   </sheetData>
